--- a/reports/Appium_Report.xlsx
+++ b/reports/Appium_Report.xlsx
@@ -49,19 +49,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-01-28T16:42:05 IST</t>
+    <t>2020-02-04T18:42:50 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-01-28T16:48:23 IST</t>
+    <t>2020-02-04T18:50:30 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>377634 ms</t>
+    <t>459893 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -82,13 +82,13 @@
     <t/>
   </si>
   <si>
-    <t>2020-01-28T16:43:09 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:43:15 IST</t>
-  </si>
-  <si>
-    <t>5633 ms</t>
+    <t>2020-02-04T18:44:33 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:44:39 IST</t>
+  </si>
+  <si>
+    <t>5461 ms</t>
   </si>
   <si>
     <t>com.ios.test.UIKitCatalogTest.getStepperCountTest</t>
@@ -100,73 +100,73 @@
     <t>CUSTOM Stepper count is not matichg expected [6] but found [5]</t>
   </si>
   <si>
-    <t>2020-01-28T16:43:22 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:43:42 IST</t>
-  </si>
-  <si>
-    <t>19963 ms</t>
+    <t>2020-02-04T18:44:46 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:45:08 IST</t>
+  </si>
+  <si>
+    <t>21925 ms</t>
   </si>
   <si>
     <t>com.ios.test.UIKitCatalogTest.pickerWheelTest</t>
   </si>
   <si>
-    <t>2020-01-28T16:43:49 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:43:53 IST</t>
-  </si>
-  <si>
-    <t>4739 ms</t>
+    <t>2020-02-04T18:45:16 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:45:23 IST</t>
+  </si>
+  <si>
+    <t>7536 ms</t>
   </si>
   <si>
     <t>com.ios.test.UIKitCatalogTest.scrollTest</t>
   </si>
   <si>
-    <t>2020-01-28T16:44:00 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:44:01 IST</t>
-  </si>
-  <si>
-    <t>1029 ms</t>
+    <t>2020-02-04T18:45:31 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:45:32 IST</t>
+  </si>
+  <si>
+    <t>1153 ms</t>
   </si>
   <si>
     <t>com.ios.test.UIKitCatalogTest.sliderTest</t>
   </si>
   <si>
-    <t>2020-01-28T16:44:08 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:44:19 IST</t>
-  </si>
-  <si>
-    <t>10723 ms</t>
+    <t>2020-02-04T18:45:39 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:45:51 IST</t>
+  </si>
+  <si>
+    <t>11698 ms</t>
   </si>
   <si>
     <t>com.ios.test.UIKitCatalogTest.tapTest</t>
   </si>
   <si>
-    <t>2020-01-28T16:44:26 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:44:29 IST</t>
-  </si>
-  <si>
-    <t>2830 ms</t>
+    <t>2020-02-04T18:45:58 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:46:03 IST</t>
+  </si>
+  <si>
+    <t>5162 ms</t>
   </si>
   <si>
     <t>com.ios.test.UIKitCatalogTest.zoomOperations</t>
   </si>
   <si>
-    <t>2020-01-28T16:44:36 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:44:42 IST</t>
-  </si>
-  <si>
-    <t>6567 ms</t>
+    <t>2020-02-04T18:46:10 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:46:16 IST</t>
+  </si>
+  <si>
+    <t>6560 ms</t>
   </si>
   <si>
     <t>com.ios.test.WebBrowserTest.invalidLoginTest</t>
@@ -175,88 +175,85 @@
     <t>Error message was not displayed correctly expected [Authentication failed!] but found [Authentication failed.]</t>
   </si>
   <si>
-    <t>2020-01-28T16:42:32 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:42:38 IST</t>
-  </si>
-  <si>
-    <t>5664 ms</t>
+    <t>2020-02-04T18:42:57 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:43:09 IST</t>
+  </si>
+  <si>
+    <t>11608 ms</t>
   </si>
   <si>
     <t>com.ios.test.WebBrowserTest.validLoginTest</t>
   </si>
   <si>
-    <t>2020-01-28T16:42:45 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:43:02 IST</t>
-  </si>
-  <si>
-    <t>16653 ms</t>
+    <t>2020-02-04T18:43:16 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:44:26 IST</t>
+  </si>
+  <si>
+    <t>70028 ms</t>
   </si>
   <si>
     <t>com.android.test.WebBrowserTest.invalidLoginTest</t>
   </si>
   <si>
-    <t>2020-01-28T16:47:48 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:47:57 IST</t>
-  </si>
-  <si>
-    <t>9002 ms</t>
+    <t>2020-02-04T18:49:36 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:49:45 IST</t>
+  </si>
+  <si>
+    <t>8872 ms</t>
   </si>
   <si>
     <t>com.android.test.WebBrowserTest.validLoginTest</t>
   </si>
   <si>
-    <t>Login failed!! expected [My Account] but found [My account]</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:48:13 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:48:22 IST</t>
-  </si>
-  <si>
-    <t>9433 ms</t>
+    <t>2020-02-04T18:49:59 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:50:29 IST</t>
+  </si>
+  <si>
+    <t>29833 ms</t>
   </si>
   <si>
     <t>com.android.test.GenralStoreTest.addProductToCart</t>
   </si>
   <si>
-    <t>2020-01-28T16:42:18 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:42:56 IST</t>
-  </si>
-  <si>
-    <t>37350 ms</t>
+    <t>2020-02-04T18:43:00 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:43:36 IST</t>
+  </si>
+  <si>
+    <t>36106 ms</t>
   </si>
   <si>
     <t>com.android.test.GenralStoreTest.fillShoppingForm</t>
   </si>
   <si>
-    <t>2020-01-28T16:43:03 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:43:11 IST</t>
-  </si>
-  <si>
-    <t>7497 ms</t>
+    <t>2020-02-04T18:43:44 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:43:52 IST</t>
+  </si>
+  <si>
+    <t>7847 ms</t>
   </si>
   <si>
     <t>com.android.test.GenralStoreTest.mobileGesturesOnCart</t>
   </si>
   <si>
-    <t>2020-01-28T16:43:21 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:44:02 IST</t>
-  </si>
-  <si>
-    <t>40997 ms</t>
+    <t>2020-02-04T18:44:01 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:44:41 IST</t>
+  </si>
+  <si>
+    <t>39679 ms</t>
   </si>
   <si>
     <t>com.android.test.GenralStoreTest.shoppingFormErrorValidation</t>
@@ -265,79 +262,82 @@
     <t>Valid Error message was not displayed expected [Please enter your user name] but found [Please enter your name]</t>
   </si>
   <si>
-    <t>2020-01-28T16:44:11 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:44:32 IST</t>
-  </si>
-  <si>
-    <t>21112 ms</t>
+    <t>2020-02-04T18:44:49 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:45:11 IST</t>
+  </si>
+  <si>
+    <t>21673 ms</t>
   </si>
   <si>
     <t>com.android.test.GenralStoreTest.testSwitchingFromNativeToWebAndBack</t>
   </si>
   <si>
-    <t>2020-01-28T16:44:41 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:45:35 IST</t>
-  </si>
-  <si>
-    <t>54426 ms</t>
+    <t>Can't locate an element by this strategy: By.name: q</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:45:20 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:46:28 IST</t>
+  </si>
+  <si>
+    <t>67139 ms</t>
   </si>
   <si>
     <t>com.android.test.GenralStoreTest.validateSumOfProductsInCart</t>
   </si>
   <si>
-    <t>2020-01-28T16:45:42 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:46:39 IST</t>
-  </si>
-  <si>
-    <t>57089 ms</t>
+    <t>2020-02-04T18:47:35 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:48:32 IST</t>
+  </si>
+  <si>
+    <t>57002 ms</t>
   </si>
   <si>
     <t>com.android.test.CalculatorAppTest.testCalculator</t>
   </si>
   <si>
-    <t>2020-01-28T16:46:46 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:46:54 IST</t>
-  </si>
-  <si>
-    <t>8069 ms</t>
+    <t>2020-02-04T18:48:38 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:48:44 IST</t>
+  </si>
+  <si>
+    <t>6188 ms</t>
   </si>
   <si>
     <t>Result did not match expected [10] but found [100]</t>
   </si>
   <si>
-    <t>2020-01-28T16:47:01 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:47:06 IST</t>
-  </si>
-  <si>
-    <t>4857 ms</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:47:12 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:47:20 IST</t>
-  </si>
-  <si>
-    <t>7596 ms</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:47:27 IST</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:47:33 IST</t>
-  </si>
-  <si>
-    <t>6653 ms</t>
+    <t>2020-02-04T18:48:51 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:48:56 IST</t>
+  </si>
+  <si>
+    <t>5293 ms</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:49:03 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:49:09 IST</t>
+  </si>
+  <si>
+    <t>6716 ms</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:49:15 IST</t>
+  </si>
+  <si>
+    <t>2020-02-04T18:49:21 IST</t>
+  </si>
+  <si>
+    <t>6209 ms</t>
   </si>
 </sst>
 </file>
@@ -562,37 +562,37 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -683,7 +683,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -768,8 +768,8 @@
     <col min="1" max="1" width="50.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.84765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="104.8046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.2578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.2578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.90234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -990,8 +990,8 @@
     <col min="1" max="1" width="72.4453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.84765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="107.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.2578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.2578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.90234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1040,110 +1040,110 @@
         <v>64</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="E3" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="F3" s="96" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="100" t="s">
+      <c r="E4" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="F4" s="102" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="106" t="s">
+      <c r="E5" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="F5" s="108" t="s">
         <v>75</v>
-      </c>
-      <c r="F5" s="108" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="112" t="s">
+      <c r="E6" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="F6" s="114" t="s">
         <v>79</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="116" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="E7" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="F7" s="120" t="s">
         <v>84</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="123" t="s">
         <v>86</v>
-      </c>
-      <c r="B8" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="124" t="s">
         <v>87</v>

--- a/reports/Appium_Report.xlsx
+++ b/reports/Appium_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>Category</t>
   </si>
@@ -25,13 +25,13 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Skipped</t>
@@ -49,19 +49,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-02-04T18:42:50 IST</t>
+    <t>2020-02-05T16:02:34 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-02-04T18:50:30 IST</t>
+    <t>2020-02-05T16:09:00 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>459893 ms</t>
+    <t>385229 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -73,7 +73,25 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.ios.test.UIKitCatalogTest.enterText</t>
+    <t>com.ios.web.test.WebBrowserTest.invalidLoginTest</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Error message was not displayed correctly expected [Authentication failed!] but found [Authentication failed.]</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:02:42 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:02:53 IST</t>
+  </si>
+  <si>
+    <t>11265 ms</t>
+  </si>
+  <si>
+    <t>com.ios.web.test.WebBrowserTest.validLoginTest</t>
   </si>
   <si>
     <t>PASS</t>
@@ -82,262 +100,238 @@
     <t/>
   </si>
   <si>
-    <t>2020-02-04T18:44:33 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:44:39 IST</t>
-  </si>
-  <si>
-    <t>5461 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.UIKitCatalogTest.getStepperCountTest</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>2020-02-05T16:03:00 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:04:12 IST</t>
+  </si>
+  <si>
+    <t>71621 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.enterText</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:04:19 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:04:24 IST</t>
+  </si>
+  <si>
+    <t>5071 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.getStepperCountTest</t>
   </si>
   <si>
     <t>CUSTOM Stepper count is not matichg expected [6] but found [5]</t>
   </si>
   <si>
-    <t>2020-02-04T18:44:46 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:08 IST</t>
-  </si>
-  <si>
-    <t>21925 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.UIKitCatalogTest.pickerWheelTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:16 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:23 IST</t>
-  </si>
-  <si>
-    <t>7536 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.UIKitCatalogTest.scrollTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:31 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:32 IST</t>
-  </si>
-  <si>
-    <t>1153 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.UIKitCatalogTest.sliderTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:39 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:51 IST</t>
-  </si>
-  <si>
-    <t>11698 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.UIKitCatalogTest.tapTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:58 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:46:03 IST</t>
-  </si>
-  <si>
-    <t>5162 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.UIKitCatalogTest.zoomOperations</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:46:10 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:46:16 IST</t>
-  </si>
-  <si>
-    <t>6560 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.WebBrowserTest.invalidLoginTest</t>
-  </si>
-  <si>
-    <t>Error message was not displayed correctly expected [Authentication failed!] but found [Authentication failed.]</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:42:57 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:43:09 IST</t>
-  </si>
-  <si>
-    <t>11608 ms</t>
-  </si>
-  <si>
-    <t>com.ios.test.WebBrowserTest.validLoginTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:43:16 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:44:26 IST</t>
-  </si>
-  <si>
-    <t>70028 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.WebBrowserTest.invalidLoginTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:36 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:45 IST</t>
-  </si>
-  <si>
-    <t>8872 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.WebBrowserTest.validLoginTest</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:59 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:50:29 IST</t>
-  </si>
-  <si>
-    <t>29833 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.GenralStoreTest.addProductToCart</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:43:00 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:43:36 IST</t>
-  </si>
-  <si>
-    <t>36106 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.GenralStoreTest.fillShoppingForm</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:43:44 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:43:52 IST</t>
-  </si>
-  <si>
-    <t>7847 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.GenralStoreTest.mobileGesturesOnCart</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:44:01 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:44:41 IST</t>
-  </si>
-  <si>
-    <t>39679 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.GenralStoreTest.shoppingFormErrorValidation</t>
+    <t>2020-02-05T16:04:31 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:04:51 IST</t>
+  </si>
+  <si>
+    <t>20072 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.pickerWheelTest</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:04:58 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:03 IST</t>
+  </si>
+  <si>
+    <t>4521 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.scrollTest</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:10 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:11 IST</t>
+  </si>
+  <si>
+    <t>1050 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.sliderTest</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:18 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:28 IST</t>
+  </si>
+  <si>
+    <t>10360 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.tapTest</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:34 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:39 IST</t>
+  </si>
+  <si>
+    <t>4857 ms</t>
+  </si>
+  <si>
+    <t>com.ios.app.test.UIKitCatalogTest.zoomOperations</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:46 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:52 IST</t>
+  </si>
+  <si>
+    <t>6513 ms</t>
+  </si>
+  <si>
+    <t>com.android.app.test.GenralStoreTest.addProductToCart</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:02:43 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:03:19 IST</t>
+  </si>
+  <si>
+    <t>35797 ms</t>
+  </si>
+  <si>
+    <t>com.android.app.test.GenralStoreTest.fillShoppingForm</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:03:27 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:03:35 IST</t>
+  </si>
+  <si>
+    <t>7795 ms</t>
+  </si>
+  <si>
+    <t>com.android.app.test.GenralStoreTest.mobileGesturesOnCart</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:03:44 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:04:23 IST</t>
+  </si>
+  <si>
+    <t>38877 ms</t>
+  </si>
+  <si>
+    <t>com.android.app.test.GenralStoreTest.shoppingFormErrorValidation</t>
   </si>
   <si>
     <t>Valid Error message was not displayed expected [Please enter your user name] but found [Please enter your name]</t>
   </si>
   <si>
-    <t>2020-02-04T18:44:49 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:11 IST</t>
-  </si>
-  <si>
-    <t>21673 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.GenralStoreTest.testSwitchingFromNativeToWebAndBack</t>
-  </si>
-  <si>
-    <t>Can't locate an element by this strategy: By.name: q</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:45:20 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:46:28 IST</t>
-  </si>
-  <si>
-    <t>67139 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.GenralStoreTest.validateSumOfProductsInCart</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:47:35 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:48:32 IST</t>
-  </si>
-  <si>
-    <t>57002 ms</t>
-  </si>
-  <si>
-    <t>com.android.test.CalculatorAppTest.testCalculator</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:48:38 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:48:44 IST</t>
-  </si>
-  <si>
-    <t>6188 ms</t>
+    <t>2020-02-05T16:04:52 IST</t>
+  </si>
+  <si>
+    <t>20762 ms</t>
+  </si>
+  <si>
+    <t>com.android.app.test.GenralStoreTest.testSwitchingFromNativeToWebAndBack</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:01 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:05:54 IST</t>
+  </si>
+  <si>
+    <t>53674 ms</t>
+  </si>
+  <si>
+    <t>com.android.app.test.GenralStoreTest.validateSumOfProductsInCart</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:06:01 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:06:58 IST</t>
+  </si>
+  <si>
+    <t>56673 ms</t>
+  </si>
+  <si>
+    <t>com.android.installed.app.test.CalculatorAppTest.testCalculator</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:04 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:12 IST</t>
+  </si>
+  <si>
+    <t>7794 ms</t>
   </si>
   <si>
     <t>Result did not match expected [10] but found [100]</t>
   </si>
   <si>
-    <t>2020-02-04T18:48:51 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:48:56 IST</t>
-  </si>
-  <si>
-    <t>5293 ms</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:03 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:09 IST</t>
-  </si>
-  <si>
-    <t>6716 ms</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:15 IST</t>
-  </si>
-  <si>
-    <t>2020-02-04T18:49:21 IST</t>
-  </si>
-  <si>
-    <t>6209 ms</t>
+    <t>2020-02-05T16:07:18 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:23 IST</t>
+  </si>
+  <si>
+    <t>4920 ms</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:30 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:37 IST</t>
+  </si>
+  <si>
+    <t>7531 ms</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:44 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:07:50 IST</t>
+  </si>
+  <si>
+    <t>5705 ms</t>
+  </si>
+  <si>
+    <t>com.android.web.test.WebBrowserTest.invalidLoginTest</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:08:05 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:08:14 IST</t>
+  </si>
+  <si>
+    <t>9225 ms</t>
+  </si>
+  <si>
+    <t>com.android.web.test.WebBrowserTest.validLoginTest</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:08:30 IST</t>
+  </si>
+  <si>
+    <t>2020-02-05T16:08:59 IST</t>
+  </si>
+  <si>
+    <t>28828 ms</t>
   </si>
 </sst>
 </file>
@@ -402,22 +396,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="11"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -508,121 +502,121 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -765,7 +759,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.87109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.84765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="104.8046875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.578125" customWidth="true" bestFit="true"/>
@@ -838,10 +832,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>32</v>
@@ -861,87 +855,87 @@
         <v>20</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D9" s="70" t="s">
         <v>53</v>
@@ -958,10 +952,10 @@
         <v>56</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>57</v>
@@ -987,7 +981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.84765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="107.671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.578125" customWidth="true" bestFit="true"/>
@@ -1020,10 +1014,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>61</v>
@@ -1040,10 +1034,10 @@
         <v>64</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" s="94" t="s">
         <v>65</v>
@@ -1060,10 +1054,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="100" t="s">
         <v>69</v>
@@ -1083,10 +1077,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E5" s="107" t="s">
         <v>74</v>
@@ -1100,10 +1094,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>77</v>
@@ -1123,136 +1117,136 @@
         <v>26</v>
       </c>
       <c r="C7" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="E7" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="F7" s="120" t="s">
         <v>83</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="123" t="s">
+      <c r="E8" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="F8" s="126" t="s">
         <v>87</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="126" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="127" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B9" s="128" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D9" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="132" t="s">
         <v>91</v>
-      </c>
-      <c r="E9" s="131" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="132" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="138" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="138" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="139" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11" s="140" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" s="143" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F11" s="144" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="145" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B12" s="146" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="147" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="149" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F12" s="150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="151" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B13" s="152" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="156" t="s">
         <v>105</v>
-      </c>
-      <c r="E13" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="156" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Appium_Report.xlsx
+++ b/reports/Appium_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>Category</t>
   </si>
@@ -49,19 +49,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-02-05T16:02:34 IST</t>
+    <t>Feb 06, 2020 07:18:09 PM</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-02-05T16:09:00 IST</t>
+    <t>Feb 06, 2020 07:24:38 PM</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>385229 ms</t>
+    <t>389460 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -82,13 +82,13 @@
     <t>Error message was not displayed correctly expected [Authentication failed!] but found [Authentication failed.]</t>
   </si>
   <si>
-    <t>2020-02-05T16:02:42 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:02:53 IST</t>
-  </si>
-  <si>
-    <t>11265 ms</t>
+    <t>Feb 06, 2020 07:18:16 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:18:28 PM</t>
+  </si>
+  <si>
+    <t>12146 ms</t>
   </si>
   <si>
     <t>com.ios.web.test.WebBrowserTest.validLoginTest</t>
@@ -100,25 +100,25 @@
     <t/>
   </si>
   <si>
-    <t>2020-02-05T16:03:00 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:04:12 IST</t>
-  </si>
-  <si>
-    <t>71621 ms</t>
+    <t>Feb 06, 2020 07:18:35 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:19:45 PM</t>
+  </si>
+  <si>
+    <t>69453 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.enterText</t>
   </si>
   <si>
-    <t>2020-02-05T16:04:19 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:04:24 IST</t>
-  </si>
-  <si>
-    <t>5071 ms</t>
+    <t>Feb 06, 2020 07:19:52 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:19:57 PM</t>
+  </si>
+  <si>
+    <t>4964 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.getStepperCountTest</t>
@@ -127,109 +127,109 @@
     <t>CUSTOM Stepper count is not matichg expected [6] but found [5]</t>
   </si>
   <si>
-    <t>2020-02-05T16:04:31 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:04:51 IST</t>
-  </si>
-  <si>
-    <t>20072 ms</t>
+    <t>Feb 06, 2020 07:20:04 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:20:24 PM</t>
+  </si>
+  <si>
+    <t>20141 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.pickerWheelTest</t>
   </si>
   <si>
-    <t>2020-02-05T16:04:58 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:05:03 IST</t>
-  </si>
-  <si>
-    <t>4521 ms</t>
+    <t>Feb 06, 2020 07:20:31 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:20:36 PM</t>
+  </si>
+  <si>
+    <t>4519 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.scrollTest</t>
   </si>
   <si>
-    <t>2020-02-05T16:05:10 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:05:11 IST</t>
-  </si>
-  <si>
-    <t>1050 ms</t>
+    <t>Feb 06, 2020 07:20:43 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:20:44 PM</t>
+  </si>
+  <si>
+    <t>1088 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.sliderTest</t>
   </si>
   <si>
-    <t>2020-02-05T16:05:18 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:05:28 IST</t>
-  </si>
-  <si>
-    <t>10360 ms</t>
+    <t>Feb 06, 2020 07:20:51 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:21:01 PM</t>
+  </si>
+  <si>
+    <t>10529 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.tapTest</t>
   </si>
   <si>
-    <t>2020-02-05T16:05:34 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:05:39 IST</t>
-  </si>
-  <si>
-    <t>4857 ms</t>
+    <t>Feb 06, 2020 07:21:08 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:21:13 PM</t>
+  </si>
+  <si>
+    <t>4752 ms</t>
   </si>
   <si>
     <t>com.ios.app.test.UIKitCatalogTest.zoomOperations</t>
   </si>
   <si>
-    <t>2020-02-05T16:05:46 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:05:52 IST</t>
-  </si>
-  <si>
-    <t>6513 ms</t>
+    <t>Feb 06, 2020 07:21:20 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:21:26 PM</t>
+  </si>
+  <si>
+    <t>6519 ms</t>
   </si>
   <si>
     <t>com.android.app.test.GenralStoreTest.addProductToCart</t>
   </si>
   <si>
-    <t>2020-02-05T16:02:43 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:03:19 IST</t>
-  </si>
-  <si>
-    <t>35797 ms</t>
+    <t>Feb 06, 2020 07:18:17 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:18:55 PM</t>
+  </si>
+  <si>
+    <t>37385 ms</t>
   </si>
   <si>
     <t>com.android.app.test.GenralStoreTest.fillShoppingForm</t>
   </si>
   <si>
-    <t>2020-02-05T16:03:27 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:03:35 IST</t>
-  </si>
-  <si>
-    <t>7795 ms</t>
+    <t>Feb 06, 2020 07:19:03 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:19:11 PM</t>
+  </si>
+  <si>
+    <t>7936 ms</t>
   </si>
   <si>
     <t>com.android.app.test.GenralStoreTest.mobileGesturesOnCart</t>
   </si>
   <si>
-    <t>2020-02-05T16:03:44 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:04:23 IST</t>
-  </si>
-  <si>
-    <t>38877 ms</t>
+    <t>Feb 06, 2020 07:19:18 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:19:58 PM</t>
+  </si>
+  <si>
+    <t>39500 ms</t>
   </si>
   <si>
     <t>com.android.app.test.GenralStoreTest.shoppingFormErrorValidation</t>
@@ -238,100 +238,97 @@
     <t>Valid Error message was not displayed expected [Please enter your user name] but found [Please enter your name]</t>
   </si>
   <si>
-    <t>2020-02-05T16:04:52 IST</t>
-  </si>
-  <si>
-    <t>20762 ms</t>
+    <t>Feb 06, 2020 07:20:06 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:20:27 PM</t>
+  </si>
+  <si>
+    <t>21039 ms</t>
   </si>
   <si>
     <t>com.android.app.test.GenralStoreTest.testSwitchingFromNativeToWebAndBack</t>
   </si>
   <si>
-    <t>2020-02-05T16:05:01 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:05:54 IST</t>
-  </si>
-  <si>
-    <t>53674 ms</t>
+    <t>Feb 06, 2020 07:21:31 PM</t>
+  </si>
+  <si>
+    <t>54810 ms</t>
   </si>
   <si>
     <t>com.android.app.test.GenralStoreTest.validateSumOfProductsInCart</t>
   </si>
   <si>
-    <t>2020-02-05T16:06:01 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:06:58 IST</t>
-  </si>
-  <si>
-    <t>56673 ms</t>
+    <t>Feb 06, 2020 07:21:38 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:22:35 PM</t>
+  </si>
+  <si>
+    <t>57156 ms</t>
   </si>
   <si>
     <t>com.android.installed.app.test.CalculatorAppTest.testCalculator</t>
   </si>
   <si>
-    <t>2020-02-05T16:07:04 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:07:12 IST</t>
-  </si>
-  <si>
-    <t>7794 ms</t>
+    <t>Feb 06, 2020 07:22:41 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:22:48 PM</t>
+  </si>
+  <si>
+    <t>6747 ms</t>
   </si>
   <si>
     <t>Result did not match expected [10] but found [100]</t>
   </si>
   <si>
-    <t>2020-02-05T16:07:18 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:07:23 IST</t>
-  </si>
-  <si>
-    <t>4920 ms</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:07:30 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:07:37 IST</t>
-  </si>
-  <si>
-    <t>7531 ms</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:07:44 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:07:50 IST</t>
-  </si>
-  <si>
-    <t>5705 ms</t>
+    <t>Feb 06, 2020 07:22:55 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:23:00 PM</t>
+  </si>
+  <si>
+    <t>4876 ms</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:23:06 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:23:13 PM</t>
+  </si>
+  <si>
+    <t>6488 ms</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:23:19 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:23:25 PM</t>
+  </si>
+  <si>
+    <t>5904 ms</t>
   </si>
   <si>
     <t>com.android.web.test.WebBrowserTest.invalidLoginTest</t>
   </si>
   <si>
-    <t>2020-02-05T16:08:05 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:08:14 IST</t>
-  </si>
-  <si>
-    <t>9225 ms</t>
+    <t>Feb 06, 2020 07:23:43 PM</t>
+  </si>
+  <si>
+    <t>Feb 06, 2020 07:23:51 PM</t>
+  </si>
+  <si>
+    <t>8600 ms</t>
   </si>
   <si>
     <t>com.android.web.test.WebBrowserTest.validLoginTest</t>
   </si>
   <si>
-    <t>2020-02-05T16:08:30 IST</t>
-  </si>
-  <si>
-    <t>2020-02-05T16:08:59 IST</t>
-  </si>
-  <si>
-    <t>28828 ms</t>
+    <t>Feb 06, 2020 07:24:07 PM</t>
+  </si>
+  <si>
+    <t>30701 ms</t>
   </si>
 </sst>
 </file>
@@ -348,11 +345,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Comic Sans MS"/>
+      <name val="Times New Roman"/>
       <sz val="12.0"/>
     </font>
     <font>
-      <name val="Comic Sans MS"/>
+      <name val="Times New Roman"/>
       <sz val="14.0"/>
       <b val="true"/>
     </font>
@@ -676,8 +673,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,12 +756,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="104.8046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="10.90234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.0859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.3046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="89.39453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.4296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.4296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -981,12 +978,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="76.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="107.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="10.90234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.3046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="92.7265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.4296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.4296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1080,18 +1077,18 @@
         <v>73</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="110" t="s">
         <v>26</v>
@@ -1100,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E6" s="113" t="s">
         <v>78</v>
@@ -1243,10 +1240,10 @@
         <v>103</v>
       </c>
       <c r="E13" s="155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="156" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="156" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
